--- a/Dataset/Dataset.xlsx
+++ b/Dataset/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34303F-4342-4919-AFF1-1D0A7E87C62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B3B1E-0CD9-41FC-9E83-7462BE8FE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-2190" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Img</t>
-  </si>
-  <si>
-    <t>Obj</t>
   </si>
   <si>
     <t>Img/Obj</t>
@@ -71,13 +68,35 @@
   <si>
     <t>Wadaba Img</t>
   </si>
+  <si>
+    <t>Sum:</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,16 +120,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1980,14 +2052,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2014,16 +2086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2314,73 +2386,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="7">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1307</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F8" si="0">(C3-B3*(1-(E3/100))*20)</f>
+        <v>208.09999999999991</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G8" si="1">C3-(C3-B3*(1-(E3/100))*20)</f>
+        <v>1098.9000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1307</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="F3" s="2">
-        <f>(C3-B3*(1-(E3/100))*20)</f>
-        <v>208.09999999999991</v>
-      </c>
-      <c r="G3" s="2">
-        <f>C3-(C3-B3*(1-(E3/100))*20)</f>
-        <v>1098.9000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>26</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>327</v>
       </c>
       <c r="D4" s="1">
@@ -2390,22 +2463,22 @@
         <v>42.3</v>
       </c>
       <c r="F4" s="2">
-        <f>(C4-B4*(1-(E4/100))*20)</f>
+        <f t="shared" si="0"/>
         <v>26.960000000000036</v>
       </c>
       <c r="G4" s="2">
-        <f>C4-(C4-B4*(1-(E4/100))*20)</f>
+        <f t="shared" si="1"/>
         <v>300.03999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>78</v>
       </c>
       <c r="D5" s="1">
@@ -2415,22 +2488,22 @@
         <v>100</v>
       </c>
       <c r="F5" s="2">
-        <f>(C5-B5*(1-(E5/100))*20)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="G5" s="2">
-        <f>C5-(C5-B5*(1-(E5/100))*20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
         <v>96</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>610</v>
       </c>
       <c r="D6" s="1">
@@ -2440,22 +2513,22 @@
         <v>84.4</v>
       </c>
       <c r="F6" s="2">
-        <f>(C6-B6*(1-(E6/100))*20)</f>
+        <f t="shared" si="0"/>
         <v>310.48000000000013</v>
       </c>
       <c r="G6" s="2">
-        <f>C6-(C6-B6*(1-(E6/100))*20)</f>
+        <f t="shared" si="1"/>
         <v>299.51999999999987</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>302</v>
       </c>
       <c r="D7" s="1">
@@ -2465,22 +2538,22 @@
         <v>57.1</v>
       </c>
       <c r="F7" s="2">
-        <f>(C7-B7*(1-(E7/100))*20)</f>
+        <f t="shared" si="0"/>
         <v>61.760000000000019</v>
       </c>
       <c r="G7" s="2">
-        <f>C7-(C7-B7*(1-(E7/100))*20)</f>
+        <f t="shared" si="1"/>
         <v>240.23999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>114</v>
       </c>
       <c r="D8" s="1">
@@ -2490,13 +2563,37 @@
         <v>96.2</v>
       </c>
       <c r="F8" s="2">
-        <f>(C8-B8*(1-(E8/100))*20)</f>
+        <f t="shared" si="0"/>
         <v>94.240000000000038</v>
       </c>
       <c r="G8" s="2">
-        <f>C8-(C8-B8*(1-(E8/100))*20)</f>
+        <f t="shared" si="1"/>
         <v>19.759999999999962</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <f>SUM(B3:B8)</f>
+        <v>307</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:G9" si="2">SUM(C3:C8)</f>
+        <v>2738</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>779.54000000000008</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>1958.46</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset/Dataset.xlsx
+++ b/Dataset/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B3B1E-0CD9-41FC-9E83-7462BE8FE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD8088-587F-4DEE-825D-3657007B1128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-2190" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -2050,16 +2050,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2086,16 +2086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dataset/Dataset.xlsx
+++ b/Dataset/Dataset.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD8088-587F-4DEE-825D-3657007B1128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7021C-1170-4F0B-9E5B-1ACDB53B6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2625" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +186,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,16 +2056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2086,16 +2092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532839</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2386,10 +2392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2438,7 @@
       <c r="C3" s="6">
         <v>1307</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>11.8</v>
       </c>
       <c r="E3" s="3">
@@ -2456,7 +2463,7 @@
       <c r="C4" s="5">
         <v>327</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>12.6</v>
       </c>
       <c r="E4" s="1">
@@ -2481,7 +2488,7 @@
       <c r="C5" s="5">
         <v>78</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>3.9</v>
       </c>
       <c r="E5" s="1">
@@ -2506,7 +2513,7 @@
       <c r="C6" s="5">
         <v>610</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>6.4</v>
       </c>
       <c r="E6" s="1">
@@ -2531,7 +2538,7 @@
       <c r="C7" s="5">
         <v>302</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>10.8</v>
       </c>
       <c r="E7" s="1">
@@ -2556,7 +2563,7 @@
       <c r="C8" s="5">
         <v>114</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="1">
@@ -2583,8 +2590,14 @@
         <f t="shared" ref="C9:G9" si="2">SUM(C3:C8)</f>
         <v>2738</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="4">
+        <f>AVERAGE(D3:D8)</f>
+        <v>8.3166666666666664</v>
+      </c>
+      <c r="E9" s="11">
+        <f>AVERAGE(E3:E8)</f>
+        <v>71.750000000000014</v>
+      </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
         <v>779.54000000000008</v>

--- a/Dataset/Dataset.xlsx
+++ b/Dataset/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7021C-1170-4F0B-9E5B-1ACDB53B6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D8BCA-62A2-4D33-8255-F7241BC531FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2625" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Img</t>
-  </si>
-  <si>
-    <t>Img/Obj</t>
-  </si>
-  <si>
-    <t>% of mine own</t>
-  </si>
-  <si>
     <t xml:space="preserve">PET </t>
   </si>
   <si>
@@ -63,16 +54,25 @@
     <t>Other</t>
   </si>
   <si>
-    <t>My Img</t>
-  </si>
-  <si>
-    <t>Wadaba Img</t>
-  </si>
-  <si>
     <t>Sum:</t>
   </si>
   <si>
-    <t>Objects</t>
+    <t>obiekty</t>
+  </si>
+  <si>
+    <t>zdjęcia</t>
+  </si>
+  <si>
+    <t>zdj./ob.</t>
+  </si>
+  <si>
+    <t>procent Wasor[%]</t>
+  </si>
+  <si>
+    <t>zdj. Wasor</t>
+  </si>
+  <si>
+    <t>zdj. Wadaba</t>
   </si>
 </sst>
 </file>
@@ -80,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +92,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,13 +174,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,7 +556,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Img per Class</a:t>
+              <a:t>Zdj. na klasę</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -611,7 +606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>My Img</c:v>
+                  <c:v>zdj. Wasor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -662,10 +657,10 @@
                   <c:v>208.09999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.960000000000036</c:v>
+                  <c:v>28.960000000000036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>310.48000000000013</c:v>
@@ -694,7 +689,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wadaba Img</c:v>
+                  <c:v>zdj. Wadaba</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2393,10 +2388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,30 +2402,30 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
+      <c r="A3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="7">
         <v>111</v>
@@ -2454,14 +2449,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>26</v>
       </c>
       <c r="C4" s="5">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D4" s="2">
         <v>12.6</v>
@@ -2471,7 +2466,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>26.960000000000036</v>
+        <v>28.960000000000036</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
@@ -2479,14 +2474,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
+      <c r="A5" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="8">
         <v>20</v>
       </c>
       <c r="C5" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2">
         <v>3.9</v>
@@ -2496,7 +2491,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
@@ -2504,8 +2499,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
+      <c r="A6" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>96</v>
@@ -2529,8 +2524,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
+      <c r="A7" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>28</v>
@@ -2554,8 +2549,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
+      <c r="A8" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>26</v>
@@ -2579,8 +2574,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
+      <c r="A9" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <f>SUM(B3:B8)</f>
@@ -2594,7 +2589,7 @@
         <f>AVERAGE(D3:D8)</f>
         <v>8.3166666666666664</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>AVERAGE(E3:E8)</f>
         <v>71.750000000000014</v>
       </c>
@@ -2607,6 +2602,15 @@
         <v>1958.46</v>
       </c>
       <c r="H9" s="1"/>
+    </row>
+    <row r="26" spans="9:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset/Dataset.xlsx
+++ b/Dataset/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D8BCA-62A2-4D33-8255-F7241BC531FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B48ECE-4FBA-480F-A343-8991C76163A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2391,7 +2391,7 @@
   <dimension ref="A2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
